--- a/biology/Botanique/Peuplier_de_Simon/Peuplier_de_Simon.xlsx
+++ b/biology/Botanique/Peuplier_de_Simon/Peuplier_de_Simon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Populus simonii
 Le Peuplier de Simon, Populus simonii, est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un arbre d’une vingtaine de mètres et qui peut atteindre 50 cm de diamètre. Il couvre une partie importante de la Chine centrale et septentrionale ainsi que la Corée. Il occupe les montagnes, plaines, dépôts alluviaux et vallées, du niveau de la mer à 3.000 m.
-Espèce introduite en Europe occidentale en 1862[3] où elle suscita quelques espérances en montagne, elle n’est actuellement utilisée que pour l’ornement. Ses rameaux souples lui donnent un aspect pleureur. Son écorce lisse et la coloration de son feuillage, ainsi que sa petite taille justifient son utilisation en arboriculture ornementale. Le Peuplier de Simon est particulièrement prisé dans le nord de l’Europe.
+Espèce introduite en Europe occidentale en 1862 où elle suscita quelques espérances en montagne, elle n’est actuellement utilisée que pour l’ornement. Ses rameaux souples lui donnent un aspect pleureur. Son écorce lisse et la coloration de son feuillage, ainsi que sa petite taille justifient son utilisation en arboriculture ornementale. Le Peuplier de Simon est particulièrement prisé dans le nord de l’Europe.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture de Populus simonii remonte à plus de 2000 ans. Après 1949, les plantations de Populus simoniiont connu un important développement dans le nord de la province de Shanxi, en Mongolie-Intérieure, dans le Jilin et l’ouest du Liaoning. La surface reboisée avec cette essence a atteint plus de 670.000 ha.
 Le Populus simonii bénéficie d’une large distribution en Chine répartie sur 3 types de formations végétales : la steppe de la zone tempérée, les forêts caducifoliées chaudes et les forêt sempervirente subtropicales. Son aire va du nord de la péninsule coréenne, dans les montagnes du Changbaishan, de la sierra de Yin, du Chilienshan et dans le sud Tianshan ; au Sud, il est présent le long du fleuve Huaihe, au nord du Yang Tsé ; dans le Hunan, dans le nord du Sichuan, dans le Qinghai et dans le Gansu. Le cœur de son aire naturelle est les provinces de Shandong, Henan, Shaanxi, Gansu, Shanxi, Hebei et Liaoning. Sa répartition en altitude est assez disparate mais s’oriente toujours vers les conditions de la forêt caducifoliée de climat doux. Dans le sud, l’altitude limite est à 2500 m et dans le nord, le plafond peut descendre sous les 1000 m. Dans le secteur sud de l’aire naturelle, la température moyenne varie entre 14 et 18 °C avec une pluviométrie supérieure à 1200 mm/an. Dans le secteur nord, la température annuelle moyenne est de 3.2 °C avec des minima à -41 °C ; la pluviométrie n’est plus que de 300 mm / an.
@@ -548,15 +562,17 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette espèce a pour synonymes : 
-Populus balsamifera var. simonii (Carrière) Wesm.[1]
-Populus brevifolia Carrière ex C. K. Schneid., nom. inval.[2]
-Populus laurifolia var. simonii (Carrière) Regel[1]
-Populus przewalskii Maxim.[1]
-Populus simonii f. fastigiata C.K. Schneid.[1]
-Populus suaveolens (Maxim.) C. K. Schneid.[2]</t>
+Populus balsamifera var. simonii (Carrière) Wesm.
+Populus brevifolia Carrière ex C. K. Schneid., nom. inval.
+Populus laurifolia var. simonii (Carrière) Regel
+Populus przewalskii Maxim.
+Populus simonii f. fastigiata C.K. Schneid.
+Populus suaveolens (Maxim.) C. K. Schneid.</t>
         </is>
       </c>
     </row>
@@ -584,17 +600,19 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (12 août 2018)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (12 août 2018) :
 variété Populus simonii var. latifolia C. Wang &amp; S. L. Tung
 variété Populus simonii var. liaotungensis (C. Wang &amp; Skvortzov) C. Wang &amp; S. L. Tung
 variété Populus simonii var. rotundifolia S. C. Lu ex C. Wang &amp; S. L. Tung
 variété Populus simonii var. simonii
 variété Populus simonii var. tsinlingensis C. Wang &amp; C. Y. Yu
-Selon The Plant List            (12 août 2018)[1] :
+Selon The Plant List            (12 août 2018) :
 variété Populus simonii var. liaotungensis (C. Wang &amp; Skvortsov) C. Wang &amp; S.L. Tung
-Selon Tropicos                                           (12 août 2018)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (12 août 2018) (Attention liste brute contenant possiblement des synonymes) :
 variété Populus simonii var. breviamenta T.Y. Sun
 variété Populus simonii var. dunhuangensis H.L. Yang &amp; C.F. Fang
 variété Populus simonii var. griseoalba T.Y. Sun
